--- a/source/MinnesotaFV.xlsx
+++ b/source/MinnesotaFV.xlsx
@@ -951,9 +951,6 @@
     <t>Mark Tang</t>
   </si>
   <si>
-    <t>Relocations</t>
-  </si>
-  <si>
     <t>Tang, Mark</t>
   </si>
   <si>
@@ -2894,6 +2891,9 @@
   </si>
   <si>
     <t>Warner, Deason</t>
+  </si>
+  <si>
+    <t>Relocations and Moon Dancing</t>
   </si>
 </sst>
 </file>
@@ -2906,6 +2906,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3279,8 +3280,8 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L182" sqref="L182"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5560,7 +5561,7 @@
         <v>309</v>
       </c>
       <c r="D114" t="s">
-        <v>310</v>
+        <v>957</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -5569,7 +5570,7 @@
         <v>12000</v>
       </c>
       <c r="H114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5577,10 +5578,10 @@
         <v>1989</v>
       </c>
       <c r="B115" t="s">
+        <v>311</v>
+      </c>
+      <c r="D115" t="s">
         <v>312</v>
-      </c>
-      <c r="D115" t="s">
-        <v>313</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -5589,7 +5590,7 @@
         <v>12000</v>
       </c>
       <c r="H115" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5597,10 +5598,10 @@
         <v>1989</v>
       </c>
       <c r="B116" t="s">
+        <v>314</v>
+      </c>
+      <c r="D116" t="s">
         <v>315</v>
-      </c>
-      <c r="D116" t="s">
-        <v>316</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -5609,7 +5610,7 @@
         <v>7000</v>
       </c>
       <c r="H116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5617,10 +5618,10 @@
         <v>1989</v>
       </c>
       <c r="B117" t="s">
+        <v>317</v>
+      </c>
+      <c r="D117" t="s">
         <v>318</v>
-      </c>
-      <c r="D117" t="s">
-        <v>319</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -5629,7 +5630,7 @@
         <v>13000</v>
       </c>
       <c r="H117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5637,10 +5638,10 @@
         <v>1990</v>
       </c>
       <c r="B118" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" t="s">
         <v>321</v>
-      </c>
-      <c r="D118" t="s">
-        <v>322</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -5649,7 +5650,7 @@
         <v>6000</v>
       </c>
       <c r="H118" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5657,10 +5658,10 @@
         <v>1990</v>
       </c>
       <c r="B119" t="s">
+        <v>323</v>
+      </c>
+      <c r="D119" t="s">
         <v>324</v>
-      </c>
-      <c r="D119" t="s">
-        <v>325</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -5669,7 +5670,7 @@
         <v>3525</v>
       </c>
       <c r="H119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5680,7 +5681,7 @@
         <v>208</v>
       </c>
       <c r="D120" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -5697,10 +5698,10 @@
         <v>1990</v>
       </c>
       <c r="B121" t="s">
+        <v>327</v>
+      </c>
+      <c r="D121" t="s">
         <v>328</v>
-      </c>
-      <c r="D121" t="s">
-        <v>329</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -5709,7 +5710,7 @@
         <v>5000</v>
       </c>
       <c r="H121" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5717,10 +5718,10 @@
         <v>1990</v>
       </c>
       <c r="B122" t="s">
+        <v>330</v>
+      </c>
+      <c r="D122" t="s">
         <v>331</v>
-      </c>
-      <c r="D122" t="s">
-        <v>332</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -5729,7 +5730,7 @@
         <v>2800</v>
       </c>
       <c r="H122" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5740,7 +5741,7 @@
         <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -5760,7 +5761,7 @@
         <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -5777,10 +5778,10 @@
         <v>1990</v>
       </c>
       <c r="B125" t="s">
+        <v>335</v>
+      </c>
+      <c r="D125" t="s">
         <v>336</v>
-      </c>
-      <c r="D125" t="s">
-        <v>337</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -5789,7 +5790,7 @@
         <v>11000</v>
       </c>
       <c r="H125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5797,10 +5798,10 @@
         <v>1990</v>
       </c>
       <c r="B126" t="s">
+        <v>338</v>
+      </c>
+      <c r="D126" t="s">
         <v>339</v>
-      </c>
-      <c r="D126" t="s">
-        <v>340</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -5809,7 +5810,7 @@
         <v>4815</v>
       </c>
       <c r="H126" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5817,10 +5818,10 @@
         <v>1990</v>
       </c>
       <c r="B127" t="s">
+        <v>341</v>
+      </c>
+      <c r="D127" t="s">
         <v>342</v>
-      </c>
-      <c r="D127" t="s">
-        <v>343</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -5829,7 +5830,7 @@
         <v>6000</v>
       </c>
       <c r="H127" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5837,10 +5838,10 @@
         <v>1990</v>
       </c>
       <c r="B128" t="s">
+        <v>344</v>
+      </c>
+      <c r="D128" t="s">
         <v>345</v>
-      </c>
-      <c r="D128" t="s">
-        <v>346</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -5849,7 +5850,7 @@
         <v>4000</v>
       </c>
       <c r="H128" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5857,10 +5858,10 @@
         <v>1990</v>
       </c>
       <c r="B129" t="s">
+        <v>347</v>
+      </c>
+      <c r="D129" t="s">
         <v>348</v>
-      </c>
-      <c r="D129" t="s">
-        <v>349</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -5869,7 +5870,7 @@
         <v>5000</v>
       </c>
       <c r="H129" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5880,7 +5881,7 @@
         <v>277</v>
       </c>
       <c r="D130" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -5900,7 +5901,7 @@
         <v>148</v>
       </c>
       <c r="D131" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -5917,10 +5918,10 @@
         <v>1990</v>
       </c>
       <c r="B132" t="s">
+        <v>352</v>
+      </c>
+      <c r="D132" t="s">
         <v>353</v>
-      </c>
-      <c r="D132" t="s">
-        <v>354</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -5929,7 +5930,7 @@
         <v>5000</v>
       </c>
       <c r="H132" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5937,10 +5938,10 @@
         <v>1990</v>
       </c>
       <c r="B133" t="s">
+        <v>355</v>
+      </c>
+      <c r="D133" t="s">
         <v>356</v>
-      </c>
-      <c r="D133" t="s">
-        <v>357</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -5949,7 +5950,7 @@
         <v>3000</v>
       </c>
       <c r="H133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5957,10 +5958,10 @@
         <v>1990</v>
       </c>
       <c r="B134" t="s">
+        <v>358</v>
+      </c>
+      <c r="D134" t="s">
         <v>359</v>
-      </c>
-      <c r="D134" t="s">
-        <v>360</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -5969,7 +5970,7 @@
         <v>4500</v>
       </c>
       <c r="H134" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5977,10 +5978,10 @@
         <v>1990</v>
       </c>
       <c r="B135" t="s">
+        <v>361</v>
+      </c>
+      <c r="D135" t="s">
         <v>362</v>
-      </c>
-      <c r="D135" t="s">
-        <v>363</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -5989,7 +5990,7 @@
         <v>4150</v>
       </c>
       <c r="H135" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5997,10 +5998,10 @@
         <v>1991</v>
       </c>
       <c r="B136" t="s">
+        <v>364</v>
+      </c>
+      <c r="D136" t="s">
         <v>365</v>
-      </c>
-      <c r="D136" t="s">
-        <v>366</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -6009,7 +6010,7 @@
         <v>6250</v>
       </c>
       <c r="H136" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6017,10 +6018,10 @@
         <v>1991</v>
       </c>
       <c r="B137" t="s">
+        <v>367</v>
+      </c>
+      <c r="D137" t="s">
         <v>368</v>
-      </c>
-      <c r="D137" t="s">
-        <v>369</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -6029,7 +6030,7 @@
         <v>2000</v>
       </c>
       <c r="H137" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6037,7 +6038,7 @@
         <v>1991</v>
       </c>
       <c r="B138" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -6046,7 +6047,7 @@
         <v>1000</v>
       </c>
       <c r="H138" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6054,7 +6055,7 @@
         <v>1991</v>
       </c>
       <c r="B139" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -6063,7 +6064,7 @@
         <v>1500</v>
       </c>
       <c r="H139" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6071,7 +6072,7 @@
         <v>1991</v>
       </c>
       <c r="B140" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -6080,7 +6081,7 @@
         <v>3000</v>
       </c>
       <c r="H140" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6091,7 +6092,7 @@
         <v>133</v>
       </c>
       <c r="D141" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -6108,10 +6109,10 @@
         <v>1991</v>
       </c>
       <c r="B142" t="s">
+        <v>377</v>
+      </c>
+      <c r="D142" t="s">
         <v>378</v>
-      </c>
-      <c r="D142" t="s">
-        <v>379</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -6120,7 +6121,7 @@
         <v>5000</v>
       </c>
       <c r="H142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6128,10 +6129,10 @@
         <v>1991</v>
       </c>
       <c r="B143" t="s">
+        <v>380</v>
+      </c>
+      <c r="D143" t="s">
         <v>381</v>
-      </c>
-      <c r="D143" t="s">
-        <v>382</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -6140,7 +6141,7 @@
         <v>3000</v>
       </c>
       <c r="H143" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6148,7 +6149,7 @@
         <v>1991</v>
       </c>
       <c r="B144" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -6157,7 +6158,7 @@
         <v>3000</v>
       </c>
       <c r="H144" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6168,7 +6169,7 @@
         <v>62</v>
       </c>
       <c r="D145" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -6185,10 +6186,10 @@
         <v>1991</v>
       </c>
       <c r="B146" t="s">
+        <v>386</v>
+      </c>
+      <c r="D146" t="s">
         <v>387</v>
-      </c>
-      <c r="D146" t="s">
-        <v>388</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -6197,7 +6198,7 @@
         <v>12000</v>
       </c>
       <c r="H146" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6208,7 +6209,7 @@
         <v>293</v>
       </c>
       <c r="D147" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -6228,10 +6229,10 @@
         <v>27</v>
       </c>
       <c r="D148" t="s">
+        <v>390</v>
+      </c>
+      <c r="E148" t="s">
         <v>391</v>
-      </c>
-      <c r="E148" t="s">
-        <v>392</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -6248,10 +6249,10 @@
         <v>1991</v>
       </c>
       <c r="B149" t="s">
+        <v>392</v>
+      </c>
+      <c r="D149" t="s">
         <v>393</v>
-      </c>
-      <c r="D149" t="s">
-        <v>394</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -6260,7 +6261,7 @@
         <v>5000</v>
       </c>
       <c r="H149" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6280,7 +6281,7 @@
         <v>7000</v>
       </c>
       <c r="H150" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6288,13 +6289,13 @@
         <v>1991</v>
       </c>
       <c r="B151" t="s">
+        <v>396</v>
+      </c>
+      <c r="C151" t="s">
         <v>397</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>398</v>
-      </c>
-      <c r="D151" t="s">
-        <v>399</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -6303,7 +6304,7 @@
         <v>11000</v>
       </c>
       <c r="H151" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6314,7 +6315,7 @@
         <v>185</v>
       </c>
       <c r="D152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
@@ -6331,7 +6332,7 @@
         <v>1991</v>
       </c>
       <c r="B153" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
@@ -6340,7 +6341,7 @@
         <v>3000</v>
       </c>
       <c r="H153" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6348,10 +6349,10 @@
         <v>1991</v>
       </c>
       <c r="B154" t="s">
+        <v>403</v>
+      </c>
+      <c r="D154" t="s">
         <v>404</v>
-      </c>
-      <c r="D154" t="s">
-        <v>405</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -6360,7 +6361,7 @@
         <v>7000</v>
       </c>
       <c r="H154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6368,7 +6369,7 @@
         <v>1991</v>
       </c>
       <c r="B155" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -6377,7 +6378,7 @@
         <v>5100</v>
       </c>
       <c r="H155" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6385,10 +6386,10 @@
         <v>1991</v>
       </c>
       <c r="B156" t="s">
+        <v>355</v>
+      </c>
+      <c r="D156" t="s">
         <v>356</v>
-      </c>
-      <c r="D156" t="s">
-        <v>357</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -6397,7 +6398,7 @@
         <v>3515</v>
       </c>
       <c r="H156" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6405,10 +6406,10 @@
         <v>1991</v>
       </c>
       <c r="B157" t="s">
+        <v>408</v>
+      </c>
+      <c r="D157" t="s">
         <v>409</v>
-      </c>
-      <c r="D157" t="s">
-        <v>410</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -6417,7 +6418,7 @@
         <v>1500</v>
       </c>
       <c r="H157" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6425,7 +6426,7 @@
         <v>1991</v>
       </c>
       <c r="B158" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -6434,7 +6435,7 @@
         <v>5000</v>
       </c>
       <c r="H158" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6442,7 +6443,7 @@
         <v>1992</v>
       </c>
       <c r="B159" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
@@ -6451,7 +6452,7 @@
         <v>5000</v>
       </c>
       <c r="H159" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6459,7 +6460,7 @@
         <v>1992</v>
       </c>
       <c r="B160" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
@@ -6468,7 +6469,7 @@
         <v>4000</v>
       </c>
       <c r="H160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6476,10 +6477,10 @@
         <v>1992</v>
       </c>
       <c r="B161" t="s">
+        <v>417</v>
+      </c>
+      <c r="D161" t="s">
         <v>418</v>
-      </c>
-      <c r="D161" t="s">
-        <v>419</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -6488,7 +6489,7 @@
         <v>10000</v>
       </c>
       <c r="H161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6496,7 +6497,7 @@
         <v>1992</v>
       </c>
       <c r="B162" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -6505,7 +6506,7 @@
         <v>10000</v>
       </c>
       <c r="H162" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6513,13 +6514,13 @@
         <v>1992</v>
       </c>
       <c r="B163" t="s">
+        <v>422</v>
+      </c>
+      <c r="D163" t="s">
         <v>423</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>424</v>
-      </c>
-      <c r="E163" t="s">
-        <v>425</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -6528,7 +6529,7 @@
         <v>2500</v>
       </c>
       <c r="H163" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6539,10 +6540,10 @@
         <v>68</v>
       </c>
       <c r="D164" t="s">
+        <v>426</v>
+      </c>
+      <c r="E164" t="s">
         <v>427</v>
-      </c>
-      <c r="E164" t="s">
-        <v>428</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -6559,7 +6560,7 @@
         <v>1992</v>
       </c>
       <c r="B165" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -6568,7 +6569,7 @@
         <v>8950</v>
       </c>
       <c r="H165" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6576,7 +6577,7 @@
         <v>1992</v>
       </c>
       <c r="B166" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -6585,7 +6586,7 @@
         <v>5000</v>
       </c>
       <c r="H166" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6593,7 +6594,7 @@
         <v>1993</v>
       </c>
       <c r="B167" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -6602,7 +6603,7 @@
         <v>12000</v>
       </c>
       <c r="H167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6610,7 +6611,7 @@
         <v>1993</v>
       </c>
       <c r="B168" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -6619,7 +6620,7 @@
         <v>1500</v>
       </c>
       <c r="H168" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6627,7 +6628,7 @@
         <v>1993</v>
       </c>
       <c r="B169" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -6636,7 +6637,7 @@
         <v>6500</v>
       </c>
       <c r="H169" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6644,10 +6645,10 @@
         <v>1993</v>
       </c>
       <c r="B170" t="s">
+        <v>436</v>
+      </c>
+      <c r="D170" t="s">
         <v>437</v>
-      </c>
-      <c r="D170" t="s">
-        <v>438</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -6656,7 +6657,7 @@
         <v>6000</v>
       </c>
       <c r="H170" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6664,7 +6665,7 @@
         <v>1993</v>
       </c>
       <c r="B171" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -6673,7 +6674,7 @@
         <v>12000</v>
       </c>
       <c r="H171" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6681,10 +6682,10 @@
         <v>1993</v>
       </c>
       <c r="B172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E172" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -6693,7 +6694,7 @@
         <v>8000</v>
       </c>
       <c r="H172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6701,7 +6702,7 @@
         <v>1993</v>
       </c>
       <c r="B173" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -6710,7 +6711,7 @@
         <v>6000</v>
       </c>
       <c r="H173" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6718,7 +6719,7 @@
         <v>1993</v>
       </c>
       <c r="B174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -6727,7 +6728,7 @@
         <v>10000</v>
       </c>
       <c r="H174" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6735,10 +6736,10 @@
         <v>1993</v>
       </c>
       <c r="B175" t="s">
+        <v>444</v>
+      </c>
+      <c r="E175" t="s">
         <v>445</v>
-      </c>
-      <c r="E175" t="s">
-        <v>446</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -6747,7 +6748,7 @@
         <v>6500</v>
       </c>
       <c r="H175" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6755,10 +6756,10 @@
         <v>1993</v>
       </c>
       <c r="B176" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -6767,7 +6768,7 @@
         <v>3000</v>
       </c>
       <c r="H176" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6775,7 +6776,7 @@
         <v>1993</v>
       </c>
       <c r="B177" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -6784,7 +6785,7 @@
         <v>8000</v>
       </c>
       <c r="H177" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6792,19 +6793,19 @@
         <v>1995</v>
       </c>
       <c r="B178" t="s">
+        <v>448</v>
+      </c>
+      <c r="D178" t="s">
         <v>449</v>
       </c>
-      <c r="D178" t="s">
-        <v>450</v>
-      </c>
       <c r="F178" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G178">
         <v>3000</v>
       </c>
       <c r="H178" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6812,19 +6813,19 @@
         <v>1995</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="F179" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G179" s="2">
         <v>0</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6832,19 +6833,19 @@
         <v>1995</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>457</v>
-      </c>
       <c r="F180" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G180" s="2">
         <v>1900</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6855,13 +6856,13 @@
         <v>262</v>
       </c>
       <c r="D181" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E181" t="s">
         <v>459</v>
       </c>
-      <c r="E181" t="s">
-        <v>460</v>
-      </c>
       <c r="F181" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G181" s="2">
         <v>10000</v>
@@ -6878,10 +6879,10 @@
         <v>136</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G182" s="2">
         <v>4000</v>
@@ -6895,19 +6896,19 @@
         <v>1995</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="F183" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G183" s="2">
         <v>4500</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6915,19 +6916,19 @@
         <v>1995</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="F184" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G184" s="2">
         <v>6000</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6935,22 +6936,22 @@
         <v>1995</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D185" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E185" t="s">
         <v>468</v>
       </c>
-      <c r="E185" t="s">
-        <v>469</v>
-      </c>
       <c r="F185" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G185" s="2">
         <v>3000</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6958,19 +6959,19 @@
         <v>1995</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="F186" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G186" s="2">
         <v>3000</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6978,19 +6979,19 @@
         <v>1995</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D187" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="F187" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G187" s="2">
         <v>5000</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6998,19 +6999,19 @@
         <v>1995</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G188" s="2">
         <v>5000</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7018,19 +7019,19 @@
         <v>1995</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="F189" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G189" s="2">
         <v>2850</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7041,13 +7042,13 @@
         <v>68</v>
       </c>
       <c r="D190" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E190" t="s">
         <v>481</v>
       </c>
-      <c r="E190" t="s">
-        <v>482</v>
-      </c>
       <c r="F190" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G190" s="2">
         <v>5000</v>
@@ -7061,19 +7062,19 @@
         <v>1995</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="F191" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G191" s="2">
         <v>5000</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7081,22 +7082,22 @@
         <v>1995</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="E192" t="s">
         <v>487</v>
       </c>
-      <c r="E192" t="s">
-        <v>488</v>
-      </c>
       <c r="F192" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G192" s="2">
         <v>3800</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7104,19 +7105,19 @@
         <v>1995</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>491</v>
-      </c>
       <c r="F193" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G193" s="2">
         <v>2500</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7124,22 +7125,22 @@
         <v>1995</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="E194" t="s">
         <v>494</v>
       </c>
-      <c r="E194" t="s">
-        <v>495</v>
-      </c>
       <c r="F194" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G194" s="2">
         <v>2500</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7147,22 +7148,22 @@
         <v>1995</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>499</v>
-      </c>
       <c r="F195" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G195" s="2">
         <v>2000</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7170,19 +7171,19 @@
         <v>1995</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D196" s="3" t="s">
-        <v>502</v>
-      </c>
       <c r="F196" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G196" s="2">
         <v>3500</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7190,19 +7191,19 @@
         <v>1995</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D197" s="3" t="s">
-        <v>505</v>
-      </c>
       <c r="F197" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G197" s="2">
         <v>2000</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7210,19 +7211,19 @@
         <v>1995</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>508</v>
-      </c>
       <c r="F198" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G198" s="2">
         <v>3500</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7230,19 +7231,19 @@
         <v>1995</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="F199" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G199" s="2">
         <v>3000</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7250,19 +7251,19 @@
         <v>1995</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>514</v>
-      </c>
       <c r="F200" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G200" s="2">
         <v>7615</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7270,19 +7271,19 @@
         <v>1995</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="D201" s="3" t="s">
-        <v>517</v>
-      </c>
       <c r="F201" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G201" s="2">
         <v>7000</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7290,22 +7291,22 @@
         <v>1995</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="E202" t="s">
         <v>520</v>
       </c>
-      <c r="E202" t="s">
-        <v>521</v>
-      </c>
       <c r="F202" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G202" s="2">
         <v>6000</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7313,22 +7314,22 @@
         <v>1996</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="E203" t="s">
         <v>524</v>
       </c>
-      <c r="E203" t="s">
-        <v>525</v>
-      </c>
       <c r="F203" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G203" s="2">
         <v>8000</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7339,19 +7340,19 @@
         <v>208</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>528</v>
-      </c>
       <c r="F204" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G204" s="2">
         <v>5000</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7359,19 +7360,19 @@
         <v>1996</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>531</v>
-      </c>
       <c r="F205" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G205" s="2">
         <v>6500</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7379,19 +7380,19 @@
         <v>1996</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>534</v>
-      </c>
       <c r="F206" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G206" s="2">
         <v>5000</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7399,22 +7400,22 @@
         <v>1996</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="E207" t="s">
         <v>537</v>
       </c>
-      <c r="E207" t="s">
-        <v>538</v>
-      </c>
       <c r="F207" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G207" s="2">
         <v>5000</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7422,22 +7423,22 @@
         <v>1996</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="E208" t="s">
         <v>541</v>
       </c>
-      <c r="E208" t="s">
-        <v>542</v>
-      </c>
       <c r="F208" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G208" s="2">
         <v>5000</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7445,19 +7446,19 @@
         <v>1996</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="F209" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G209" s="2">
         <v>6500</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7465,19 +7466,19 @@
         <v>1996</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D210" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="F210" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G210" s="2">
         <v>6000</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7485,19 +7486,19 @@
         <v>1996</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D211" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>551</v>
-      </c>
       <c r="F211" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G211" s="2">
         <v>6000</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7505,19 +7506,19 @@
         <v>1996</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G212" s="2">
         <v>6000</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7525,19 +7526,19 @@
         <v>1996</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D213" s="3" t="s">
-        <v>555</v>
-      </c>
       <c r="F213" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G213" s="2">
         <v>5000</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7545,19 +7546,19 @@
         <v>1997</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D214" s="3" t="s">
-        <v>466</v>
-      </c>
       <c r="F214" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G214" s="2">
         <v>11500</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7565,19 +7566,19 @@
         <v>1997</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D215" s="3" t="s">
-        <v>558</v>
-      </c>
       <c r="F215" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G215" s="2">
         <v>12000</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7585,19 +7586,19 @@
         <v>1997</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D216" s="3" t="s">
-        <v>561</v>
-      </c>
       <c r="F216" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G216" s="2">
         <v>14545</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7605,19 +7606,19 @@
         <v>1997</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D217" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="F217" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G217" s="2">
         <v>12618</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7625,22 +7626,22 @@
         <v>1997</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D218" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E218" t="s">
         <v>566</v>
       </c>
-      <c r="E218" t="s">
-        <v>567</v>
-      </c>
       <c r="F218" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G218" s="2">
         <v>15000</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7648,19 +7649,19 @@
         <v>1997</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G219" s="2">
         <v>15000</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7668,19 +7669,19 @@
         <v>1998</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D220" s="3" t="s">
-        <v>570</v>
-      </c>
       <c r="F220" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G220" s="2">
         <v>10000</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7688,19 +7689,19 @@
         <v>1998</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D221" s="3" t="s">
-        <v>573</v>
-      </c>
       <c r="F221" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G221" s="2">
         <v>15000</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7711,13 +7712,13 @@
         <v>68</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E222" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G222" s="2">
         <v>10000</v>
@@ -7731,19 +7732,19 @@
         <v>1998</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="D223" s="3" t="s">
-        <v>577</v>
-      </c>
       <c r="F223" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G223" s="2">
         <v>19000</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7751,19 +7752,19 @@
         <v>1998</v>
       </c>
       <c r="B224" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D224" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="F224" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G224" s="2">
         <v>3500</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7771,19 +7772,19 @@
         <v>1998</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D225" s="3" t="s">
-        <v>583</v>
-      </c>
       <c r="F225" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G225" s="2">
         <v>0</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7791,22 +7792,22 @@
         <v>1998</v>
       </c>
       <c r="B226" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="D226" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D226" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="F226" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G226" s="2">
         <v>15000</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7814,19 +7815,19 @@
         <v>1999</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D227" s="3" t="s">
-        <v>590</v>
-      </c>
       <c r="F227" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G227" s="2">
         <v>10000</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7834,19 +7835,19 @@
         <v>1999</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G228" s="2">
         <v>8000</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7854,19 +7855,19 @@
         <v>1999</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D229" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="F229" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G229" s="2">
         <v>10000</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7874,19 +7875,19 @@
         <v>1999</v>
       </c>
       <c r="B230" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="D230" s="3" t="s">
-        <v>597</v>
-      </c>
       <c r="F230" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G230" s="2">
         <v>10000</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7894,19 +7895,19 @@
         <v>1999</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D231" s="3" t="s">
-        <v>600</v>
-      </c>
       <c r="F231" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G231" s="2">
         <v>17000</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7914,19 +7915,19 @@
         <v>1999</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D232" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="F232" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G232" s="2">
         <v>10000</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7934,19 +7935,19 @@
         <v>1999</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D233" s="3" t="s">
-        <v>606</v>
-      </c>
       <c r="F233" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G233" s="2">
         <v>10000</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7954,19 +7955,19 @@
         <v>1999</v>
       </c>
       <c r="B234" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D234" s="3" t="s">
-        <v>609</v>
-      </c>
       <c r="F234" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G234" s="2">
         <v>10000</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7974,22 +7975,22 @@
         <v>2000</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="E235" t="s">
         <v>612</v>
       </c>
-      <c r="E235" t="s">
-        <v>613</v>
-      </c>
       <c r="F235" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G235" s="2">
         <v>15000</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7997,19 +7998,19 @@
         <v>2000</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D236" s="3" t="s">
-        <v>616</v>
-      </c>
       <c r="F236" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G236" s="2">
         <v>0</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8017,19 +8018,19 @@
         <v>2000</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G237" s="2">
         <v>10000</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8037,19 +8038,19 @@
         <v>2000</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D238" s="3" t="s">
-        <v>620</v>
-      </c>
       <c r="F238" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G238" s="2">
         <v>5000</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8057,22 +8058,22 @@
         <v>2000</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D239" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="E239" t="s">
         <v>623</v>
       </c>
-      <c r="E239" t="s">
-        <v>624</v>
-      </c>
       <c r="F239" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G239" s="2">
         <v>10000</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8080,19 +8081,19 @@
         <v>2000</v>
       </c>
       <c r="B240" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D240" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>627</v>
-      </c>
       <c r="F240" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G240" s="2">
         <v>10000</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8100,19 +8101,19 @@
         <v>2000</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D241" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="F241" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G241" s="2">
         <v>15000</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8120,19 +8121,19 @@
         <v>2000</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D242" s="3" t="s">
-        <v>633</v>
-      </c>
       <c r="F242" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G242" s="2">
         <v>12000</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8140,19 +8141,19 @@
         <v>2000</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D243" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="F243" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G243" s="2">
         <v>15000</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8160,19 +8161,19 @@
         <v>2001</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D244" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="F244" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G244" s="2">
         <v>14000</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8180,19 +8181,19 @@
         <v>2001</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G245" s="2">
         <v>14000</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8200,19 +8201,19 @@
         <v>2001</v>
       </c>
       <c r="B246" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D246" s="3" t="s">
-        <v>643</v>
-      </c>
       <c r="F246" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G246" s="2">
         <v>14000</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8220,22 +8221,22 @@
         <v>2001</v>
       </c>
       <c r="B247" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="E247" t="s">
         <v>646</v>
       </c>
-      <c r="E247" t="s">
-        <v>647</v>
-      </c>
       <c r="F247" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G247" s="2">
         <v>10000</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8243,19 +8244,19 @@
         <v>2001</v>
       </c>
       <c r="B248" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D248" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="F248" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G248" s="2">
         <v>10000</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8263,19 +8264,19 @@
         <v>2001</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D249" s="3" t="s">
-        <v>653</v>
-      </c>
       <c r="F249" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G249" s="2">
         <v>3000</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8283,19 +8284,19 @@
         <v>2001</v>
       </c>
       <c r="B250" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D250" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D250" s="3" t="s">
-        <v>656</v>
-      </c>
       <c r="F250" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G250" s="2">
         <v>14000</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8303,25 +8304,25 @@
         <v>2001</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="D251" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="E251" t="s">
         <v>660</v>
       </c>
-      <c r="E251" t="s">
-        <v>661</v>
-      </c>
       <c r="F251" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G251" s="2">
         <v>14000</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8329,19 +8330,19 @@
         <v>2002</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D252" s="3" t="s">
-        <v>664</v>
-      </c>
       <c r="F252" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G252" s="2">
         <v>9000</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8349,22 +8350,22 @@
         <v>2002</v>
       </c>
       <c r="B253" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="E253" t="s">
         <v>667</v>
       </c>
-      <c r="E253" t="s">
-        <v>668</v>
-      </c>
       <c r="F253" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G253" s="2">
         <v>9500</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8372,22 +8373,22 @@
         <v>2002</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="E254" t="s">
         <v>671</v>
       </c>
-      <c r="E254" t="s">
-        <v>672</v>
-      </c>
       <c r="F254" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G254" s="2">
         <v>9000</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8395,19 +8396,19 @@
         <v>2002</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G255" s="2">
         <v>12000</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8415,19 +8416,19 @@
         <v>2002</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>676</v>
-      </c>
       <c r="F256" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G256" s="2">
         <v>10000</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8435,19 +8436,19 @@
         <v>2002</v>
       </c>
       <c r="B257" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D257" s="3" t="s">
-        <v>679</v>
-      </c>
       <c r="F257" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G257" s="2">
         <v>9500</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8455,19 +8456,19 @@
         <v>2002</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D258" s="3" t="s">
-        <v>682</v>
-      </c>
       <c r="F258" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G258" s="2">
         <v>10000</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8475,19 +8476,19 @@
         <v>2002</v>
       </c>
       <c r="B259" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D259" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D259" s="3" t="s">
-        <v>685</v>
-      </c>
       <c r="F259" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G259" s="2">
         <v>8000</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8495,22 +8496,22 @@
         <v>2002</v>
       </c>
       <c r="B260" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="E260" t="s">
         <v>688</v>
       </c>
-      <c r="E260" t="s">
-        <v>689</v>
-      </c>
       <c r="F260" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G260" s="2">
         <v>9000</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8518,25 +8519,25 @@
         <v>2003</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="E261" t="s">
         <v>693</v>
       </c>
-      <c r="E261" t="s">
-        <v>694</v>
-      </c>
       <c r="F261" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G261" s="2">
         <v>10000</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8544,19 +8545,19 @@
         <v>2003</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G262" s="2">
         <v>12000</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8564,19 +8565,19 @@
         <v>2003</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D263" s="3" t="s">
-        <v>698</v>
-      </c>
       <c r="F263" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G263" s="2">
         <v>14000</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8584,22 +8585,22 @@
         <v>2003</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="E264" t="s">
         <v>701</v>
       </c>
-      <c r="E264" t="s">
-        <v>702</v>
-      </c>
       <c r="F264" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G264" s="2">
         <v>10000</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8607,22 +8608,22 @@
         <v>2003</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D265" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="E265" t="s">
         <v>705</v>
       </c>
-      <c r="E265" t="s">
-        <v>706</v>
-      </c>
       <c r="F265" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G265" s="2">
         <v>15000</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8630,19 +8631,19 @@
         <v>2003</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D266" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="D266" s="3" t="s">
-        <v>709</v>
-      </c>
       <c r="F266" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G266" s="2">
         <v>5000</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8650,22 +8651,22 @@
         <v>2003</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D267" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="E267" t="s">
         <v>712</v>
       </c>
-      <c r="E267" t="s">
-        <v>713</v>
-      </c>
       <c r="F267" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G267" s="2">
         <v>8000</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8673,22 +8674,22 @@
         <v>2003</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="D268" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="F268" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G268" s="2">
         <v>11000</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8696,19 +8697,19 @@
         <v>2003</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="D269" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="F269" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G269" s="2">
         <v>2500</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8719,10 +8720,10 @@
         <v>211</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G270" s="2">
         <v>15000</v>
@@ -8736,19 +8737,19 @@
         <v>2004</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D271" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="D271" s="3" t="s">
-        <v>724</v>
-      </c>
       <c r="F271" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G271" s="2">
         <v>10000</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8756,19 +8757,19 @@
         <v>2004</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D272" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D272" s="3" t="s">
-        <v>727</v>
-      </c>
       <c r="F272" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G272" s="2">
         <v>10000</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8776,19 +8777,19 @@
         <v>2004</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D273" s="3" t="s">
-        <v>730</v>
-      </c>
       <c r="F273" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G273" s="2">
         <v>8000</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8796,19 +8797,19 @@
         <v>2004</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D274" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D274" s="3" t="s">
-        <v>733</v>
-      </c>
       <c r="F274" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G274" s="2">
         <v>10000</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8816,22 +8817,22 @@
         <v>2004</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D275" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="E275" t="s">
         <v>736</v>
       </c>
-      <c r="E275" t="s">
-        <v>737</v>
-      </c>
       <c r="F275" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G275" s="2">
         <v>9000</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8839,22 +8840,22 @@
         <v>2004</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E276" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G276" s="2">
         <v>18000</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8862,22 +8863,22 @@
         <v>2004</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D277" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="E277" t="s">
         <v>741</v>
       </c>
-      <c r="E277" t="s">
-        <v>742</v>
-      </c>
       <c r="F277" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G277" s="2">
         <v>5000</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8885,19 +8886,19 @@
         <v>2004</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G278" s="2">
         <v>5000</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8905,22 +8906,22 @@
         <v>2005</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D279" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="E279" t="s">
         <v>746</v>
       </c>
-      <c r="E279" t="s">
-        <v>747</v>
-      </c>
       <c r="F279" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G279" s="2">
         <v>20000</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8928,22 +8929,22 @@
         <v>2005</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="E280" t="s">
         <v>750</v>
       </c>
-      <c r="E280" t="s">
-        <v>751</v>
-      </c>
       <c r="F280" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G280" s="2">
         <v>5000</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8951,22 +8952,22 @@
         <v>2005</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="E281" t="s">
         <v>754</v>
       </c>
-      <c r="E281" t="s">
-        <v>755</v>
-      </c>
       <c r="F281" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G281" s="2">
         <v>10000</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8974,22 +8975,22 @@
         <v>2005</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="D282" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="E282" t="s">
         <v>758</v>
       </c>
-      <c r="E282" t="s">
-        <v>759</v>
-      </c>
       <c r="F282" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G282" s="2">
         <v>15000</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8997,19 +8998,19 @@
         <v>2005</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D283" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D283" s="3" t="s">
-        <v>762</v>
-      </c>
       <c r="F283" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G283" s="2">
         <v>9000</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9017,22 +9018,22 @@
         <v>2005</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E284" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G284" s="2">
         <v>10000</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9040,22 +9041,22 @@
         <v>2005</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="E285" t="s">
         <v>766</v>
       </c>
-      <c r="E285" t="s">
-        <v>767</v>
-      </c>
       <c r="F285" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G285" s="2">
         <v>15000</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9063,19 +9064,19 @@
         <v>2005</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="D286" s="3" t="s">
-        <v>770</v>
-      </c>
       <c r="F286" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G286" s="2">
         <v>10000</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9083,22 +9084,22 @@
         <v>2005</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="E287" t="s">
         <v>773</v>
       </c>
-      <c r="E287" t="s">
-        <v>774</v>
-      </c>
       <c r="F287" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G287" s="2">
         <v>10000</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9106,19 +9107,19 @@
         <v>2006</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D288" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D288" s="3" t="s">
-        <v>777</v>
-      </c>
       <c r="F288" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G288" s="2">
         <v>10000</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9126,19 +9127,19 @@
         <v>2006</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="D289" s="3" t="s">
-        <v>780</v>
-      </c>
       <c r="F289" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G289" s="2">
         <v>20000</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9146,19 +9147,19 @@
         <v>2006</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="D290" s="3" t="s">
-        <v>783</v>
-      </c>
       <c r="F290" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G290" s="2">
         <v>10000</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9166,22 +9167,22 @@
         <v>2006</v>
       </c>
       <c r="B291" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D291" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="E291" t="s">
         <v>786</v>
       </c>
-      <c r="E291" t="s">
-        <v>787</v>
-      </c>
       <c r="F291" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G291" s="2">
         <v>0</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9189,19 +9190,19 @@
         <v>2006</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D292" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="D292" s="3" t="s">
-        <v>790</v>
-      </c>
       <c r="F292" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G292" s="2">
         <v>20000</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9209,22 +9210,22 @@
         <v>2006</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D293" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E293" t="s">
         <v>792</v>
       </c>
-      <c r="E293" t="s">
-        <v>793</v>
-      </c>
       <c r="F293" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G293" s="2">
         <v>5000</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9232,22 +9233,22 @@
         <v>2006</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="E294" t="s">
         <v>795</v>
       </c>
-      <c r="E294" t="s">
-        <v>796</v>
-      </c>
       <c r="F294" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G294" s="2">
         <v>6000</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9255,22 +9256,22 @@
         <v>2006</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E295" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G295" s="2">
         <v>13000</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9281,22 +9282,22 @@
         <v>309</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D296" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E296" t="s">
         <v>799</v>
       </c>
-      <c r="E296" t="s">
-        <v>800</v>
-      </c>
       <c r="F296" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G296" s="2">
         <v>19000</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9304,19 +9305,19 @@
         <v>2007</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D297" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="D297" s="3" t="s">
-        <v>803</v>
-      </c>
       <c r="F297" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G297" s="2">
         <v>13854</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9324,22 +9325,22 @@
         <v>2007</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D298" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="E298" t="s">
         <v>806</v>
       </c>
-      <c r="E298" t="s">
-        <v>807</v>
-      </c>
       <c r="F298" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G298" s="2">
         <v>15000</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9347,19 +9348,19 @@
         <v>2007</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="D299" s="3" t="s">
-        <v>810</v>
-      </c>
       <c r="F299" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G299" s="2">
         <v>20000</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9367,22 +9368,22 @@
         <v>2007</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="E300" t="s">
         <v>813</v>
       </c>
-      <c r="E300" t="s">
-        <v>814</v>
-      </c>
       <c r="F300" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G300" s="2">
         <v>30000</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9390,22 +9391,22 @@
         <v>2007</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E301" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G301" s="2">
         <v>10000</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9413,22 +9414,22 @@
         <v>2007</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D302" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="E302" t="s">
         <v>818</v>
       </c>
-      <c r="E302" t="s">
-        <v>819</v>
-      </c>
       <c r="F302" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G302" s="2">
         <v>20000</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9436,19 +9437,19 @@
         <v>2007</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D303" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="D303" s="3" t="s">
-        <v>822</v>
-      </c>
       <c r="F303" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G303" s="2">
         <v>9000</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9456,19 +9457,19 @@
         <v>2008</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G304" s="2">
         <v>15000</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9476,22 +9477,22 @@
         <v>2008</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D305" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="E305" t="s">
         <v>826</v>
       </c>
-      <c r="E305" t="s">
-        <v>827</v>
-      </c>
       <c r="F305" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G305" s="2">
         <v>18000</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9499,19 +9500,19 @@
         <v>2008</v>
       </c>
       <c r="B306" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D306" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="D306" s="3" t="s">
-        <v>830</v>
-      </c>
       <c r="F306" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G306" s="2">
         <v>15000</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9519,19 +9520,19 @@
         <v>2008</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D307" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="D307" s="3" t="s">
-        <v>833</v>
-      </c>
       <c r="F307" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G307" s="2">
         <v>10000</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9539,19 +9540,19 @@
         <v>2008</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D308" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="D308" s="3" t="s">
-        <v>836</v>
-      </c>
       <c r="F308" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G308" s="2">
         <v>15000</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9559,22 +9560,22 @@
         <v>2008</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D309" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="E309" t="s">
         <v>839</v>
       </c>
-      <c r="E309" t="s">
-        <v>840</v>
-      </c>
       <c r="F309" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G309" s="2">
         <v>12000</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9582,19 +9583,19 @@
         <v>2008</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D310" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D310" s="3" t="s">
-        <v>843</v>
-      </c>
       <c r="F310" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G310" s="2">
         <v>20000</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9602,22 +9603,22 @@
         <v>2009</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D311" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="E311" t="s">
         <v>846</v>
       </c>
-      <c r="E311" t="s">
-        <v>847</v>
-      </c>
       <c r="F311" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G311" s="2">
         <v>5500</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9625,22 +9626,22 @@
         <v>2009</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D312" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="E312" t="s">
         <v>850</v>
       </c>
-      <c r="E312" t="s">
-        <v>851</v>
-      </c>
       <c r="F312" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G312" s="2">
         <v>10000</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9648,19 +9649,19 @@
         <v>2009</v>
       </c>
       <c r="B313" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D313" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="D313" s="3" t="s">
-        <v>854</v>
-      </c>
       <c r="F313" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G313" s="2">
         <v>15000</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9668,22 +9669,22 @@
         <v>2009</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D314" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="E314" t="s">
         <v>857</v>
       </c>
-      <c r="E314" t="s">
-        <v>858</v>
-      </c>
       <c r="F314" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G314" s="2">
         <v>11000</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9691,19 +9692,19 @@
         <v>2009</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D315" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="D315" s="3" t="s">
-        <v>861</v>
-      </c>
       <c r="F315" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G315" s="2">
         <v>15000</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9711,19 +9712,19 @@
         <v>2009</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D316" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="D316" s="3" t="s">
-        <v>864</v>
-      </c>
       <c r="F316" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G316" s="2">
         <v>8500</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9731,19 +9732,19 @@
         <v>2009</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G317" s="2">
         <v>10000</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9751,25 +9752,25 @@
         <v>2009</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="D318" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="E318" t="s">
         <v>869</v>
       </c>
-      <c r="E318" t="s">
-        <v>870</v>
-      </c>
       <c r="F318" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G318" s="2">
         <v>15000</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9777,25 +9778,25 @@
         <v>2009</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="D319" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="E319" t="s">
         <v>874</v>
       </c>
-      <c r="E319" t="s">
-        <v>875</v>
-      </c>
       <c r="F319" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G319" s="2">
         <v>10000</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9803,19 +9804,19 @@
         <v>2010</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="D320" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="D320" s="3" t="s">
-        <v>878</v>
-      </c>
       <c r="F320" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G320" s="2">
         <v>10000</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9823,19 +9824,19 @@
         <v>2010</v>
       </c>
       <c r="B321" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D321" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="D321" s="3" t="s">
-        <v>881</v>
-      </c>
       <c r="F321" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G321" s="2">
         <v>10000</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9843,19 +9844,19 @@
         <v>2010</v>
       </c>
       <c r="B322" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="D322" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="D322" s="3" t="s">
-        <v>884</v>
-      </c>
       <c r="F322" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G322" s="2">
         <v>14500</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9863,19 +9864,19 @@
         <v>2010</v>
       </c>
       <c r="B323" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D323" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="D323" s="3" t="s">
-        <v>887</v>
-      </c>
       <c r="F323" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G323" s="2">
         <v>15000</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9883,19 +9884,19 @@
         <v>2010</v>
       </c>
       <c r="B324" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D324" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="D324" s="3" t="s">
-        <v>890</v>
-      </c>
       <c r="F324" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G324" s="2">
         <v>10000</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9903,19 +9904,19 @@
         <v>2010</v>
       </c>
       <c r="B325" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D325" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="D325" s="3" t="s">
-        <v>893</v>
-      </c>
       <c r="F325" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G325" s="2">
         <v>15500</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9923,22 +9924,22 @@
         <v>2010</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D326" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="E326" t="s">
         <v>896</v>
       </c>
-      <c r="E326" t="s">
-        <v>897</v>
-      </c>
       <c r="F326" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G326" s="2">
         <v>15000</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9946,19 +9947,19 @@
         <v>2011</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D327" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="D327" s="3" t="s">
-        <v>900</v>
-      </c>
       <c r="F327" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G327" s="2">
         <v>10000</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9966,22 +9967,22 @@
         <v>2011</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D328" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="E328" t="s">
         <v>903</v>
       </c>
-      <c r="E328" t="s">
-        <v>904</v>
-      </c>
       <c r="F328" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G328" s="2">
         <v>10000</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9989,19 +9990,19 @@
         <v>2011</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D329" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="D329" s="3" t="s">
-        <v>907</v>
-      </c>
       <c r="F329" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G329" s="2">
         <v>10000</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10009,19 +10010,19 @@
         <v>2011</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D330" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="D330" s="3" t="s">
-        <v>910</v>
-      </c>
       <c r="F330" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G330" s="2">
         <v>2300</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10029,19 +10030,19 @@
         <v>2011</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D331" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="D331" s="3" t="s">
-        <v>913</v>
-      </c>
       <c r="F331" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G331" s="2">
         <v>15000</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10049,19 +10050,19 @@
         <v>2011</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D332" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="D332" s="3" t="s">
-        <v>916</v>
-      </c>
       <c r="F332" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G332" s="2">
         <v>15000</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10069,19 +10070,19 @@
         <v>2011</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="D333" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="D333" s="3" t="s">
-        <v>919</v>
-      </c>
       <c r="F333" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G333" s="2">
         <v>20000</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10089,19 +10090,19 @@
         <v>2011</v>
       </c>
       <c r="B334" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="D334" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="D334" s="3" t="s">
-        <v>922</v>
-      </c>
       <c r="F334" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G334" s="2">
         <v>8000</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10109,19 +10110,19 @@
         <v>2011</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G335" s="2">
         <v>20000</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10129,19 +10130,19 @@
         <v>2012</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G336" s="2">
         <v>6000</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10149,22 +10150,22 @@
         <v>2012</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D337" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="E337" t="s">
         <v>927</v>
       </c>
-      <c r="E337" t="s">
-        <v>928</v>
-      </c>
       <c r="F337" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G337" s="2">
         <v>30000</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10172,22 +10173,22 @@
         <v>2012</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C338" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D338" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="D338" s="3" t="s">
-        <v>930</v>
-      </c>
       <c r="F338" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G338" s="2">
         <v>12000</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10195,22 +10196,22 @@
         <v>2012</v>
       </c>
       <c r="B339" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D339" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="E339" t="s">
         <v>933</v>
       </c>
-      <c r="E339" t="s">
-        <v>934</v>
-      </c>
       <c r="F339" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G339" s="2">
         <v>16000</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10218,19 +10219,19 @@
         <v>2012</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D340" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="D340" s="3" t="s">
-        <v>937</v>
-      </c>
       <c r="F340" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G340" s="2">
         <v>17000</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10238,19 +10239,19 @@
         <v>2012</v>
       </c>
       <c r="B341" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D341" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="D341" s="3" t="s">
-        <v>940</v>
-      </c>
       <c r="F341" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G341" s="2">
         <v>10000</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10258,19 +10259,19 @@
         <v>2013</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D342" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="D342" s="3" t="s">
-        <v>943</v>
-      </c>
       <c r="F342" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G342" s="2">
         <v>17500</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10278,22 +10279,22 @@
         <v>2013</v>
       </c>
       <c r="B343" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="D343" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="D343" s="3" t="s">
+      <c r="E343" t="s">
         <v>946</v>
       </c>
-      <c r="E343" t="s">
-        <v>947</v>
-      </c>
       <c r="F343" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G343" s="2">
         <v>7500</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10301,19 +10302,19 @@
         <v>2013</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G344" s="2">
         <v>15000</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10321,19 +10322,19 @@
         <v>2013</v>
       </c>
       <c r="B345" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D345" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="D345" s="3" t="s">
-        <v>951</v>
-      </c>
       <c r="F345" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G345" s="2">
         <v>15000</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10341,19 +10342,19 @@
         <v>2013</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G346" s="2">
         <v>10000</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10361,19 +10362,19 @@
         <v>2013</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G347" s="2">
         <v>25000</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10381,19 +10382,19 @@
         <v>2013</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="D348" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="D348" s="3" t="s">
-        <v>956</v>
-      </c>
       <c r="F348" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G348" s="2">
         <v>15000</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
